--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <t>明显属性</t>
   </si>
@@ -22,6 +22,9 @@
     <t>隐藏属性</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>发型</t>
   </si>
   <si>
@@ -533,6 +536,141 @@
   </si>
   <si>
     <t>特工手套</t>
+  </si>
+  <si>
+    <t>话剧甄选会</t>
+  </si>
+  <si>
+    <t>灰姑娘</t>
+  </si>
+  <si>
+    <t>舞之星</t>
+  </si>
+  <si>
+    <t>安娜小姐·珍稀</t>
+  </si>
+  <si>
+    <t>机械态度</t>
+  </si>
+  <si>
+    <t>超级特工·鞋</t>
+  </si>
+  <si>
+    <t>齿轮礼帽</t>
+  </si>
+  <si>
+    <t>花开·珍稀</t>
+  </si>
+  <si>
+    <t>星海链</t>
+  </si>
+  <si>
+    <t>豪门披肩</t>
+  </si>
+  <si>
+    <t>星海手套</t>
+  </si>
+  <si>
+    <t>墨兰扇</t>
+  </si>
+  <si>
+    <t>黑暗手杖·华丽</t>
+  </si>
+  <si>
+    <t>百合腰饰</t>
+  </si>
+  <si>
+    <t>时尚先驱·弟</t>
+  </si>
+  <si>
+    <t>梦纱</t>
+  </si>
+  <si>
+    <t>曼殊沙华</t>
+  </si>
+  <si>
+    <t>麦穗·棕</t>
+  </si>
+  <si>
+    <t>兔球球</t>
+  </si>
+  <si>
+    <t>萤火</t>
+  </si>
+  <si>
+    <t>（月千重）</t>
+  </si>
+  <si>
+    <t>裤装游行</t>
+  </si>
+  <si>
+    <t>圣诞礼物</t>
+  </si>
+  <si>
+    <t>垂耳兔</t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>糕点师·灰</t>
+  </si>
+  <si>
+    <t>米色七分裤</t>
+  </si>
+  <si>
+    <t>爱丽丝之袜</t>
+  </si>
+  <si>
+    <t>森系袜套</t>
+  </si>
+  <si>
+    <t>森系雪地靴</t>
+  </si>
+  <si>
+    <t>胡萝卜美梦</t>
+  </si>
+  <si>
+    <t>趣味帽</t>
+  </si>
+  <si>
+    <t>雪绒球·大</t>
+  </si>
+  <si>
+    <t>拼色围巾</t>
+  </si>
+  <si>
+    <t>护士手套</t>
+  </si>
+  <si>
+    <t>苦无</t>
+  </si>
+  <si>
+    <t>红枫缎·华丽</t>
+  </si>
+  <si>
+    <t>苹果联盟高级成衣展</t>
+  </si>
+  <si>
+    <t>甜美少女</t>
+  </si>
+  <si>
+    <t>名媛连衣裙</t>
+  </si>
+  <si>
+    <t>职场佳丽</t>
+  </si>
+  <si>
+    <t>设计师的生命</t>
+  </si>
+  <si>
+    <t>花开·华丽</t>
+  </si>
+  <si>
+    <t>月石链</t>
+  </si>
+  <si>
+    <t>白雪手套</t>
   </si>
 </sst>
 </file>
@@ -540,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1095,31 +1233,36 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" style="1" customWidth="1"/>
     <col min="19" max="20" width="10.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1"/>
-    <col min="23" max="24" width="12.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="1" customWidth="1"/>
     <col min="25" max="25" width="9.25" style="1" customWidth="1"/>
-    <col min="26" max="32" width="9" style="1"/>
+    <col min="26" max="26" width="14.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="13.75" style="1" customWidth="1"/>
+    <col min="29" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
@@ -1131,70 +1274,73 @@
         <v>1</v>
       </c>
       <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
         <v>13</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Y1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -1224,22 +1370,22 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -1269,22 +1415,22 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -1314,64 +1460,64 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" s="15"/>
       <c r="T5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
@@ -1408,51 +1554,51 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
@@ -1496,22 +1642,22 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1541,22 +1687,22 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -1586,48 +1732,48 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -1671,59 +1817,59 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
@@ -1739,22 +1885,22 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1811,50 +1957,50 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="I16" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -1899,53 +2045,53 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I18" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -1988,69 +2134,69 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="U20" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="V20" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
@@ -2062,58 +2208,58 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="V21" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
@@ -2129,54 +2275,54 @@
     </row>
     <row r="22" spans="9:34">
       <c r="I22" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="Q22" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="R22" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="U22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="15" t="s">
         <v>123</v>
       </c>
+      <c r="W22" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="Y22" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC22" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
@@ -2186,22 +2332,22 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -2231,68 +2377,68 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W24" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC24" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
@@ -2329,76 +2475,76 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC26" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
@@ -2434,67 +2580,67 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O28" s="15"/>
       <c r="P28" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="X28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="W28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="Y28" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
@@ -2535,22 +2681,22 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -2607,53 +2753,53 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="I32" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -2752,33 +2898,102 @@
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
     </row>
-    <row r="36" spans="9:34">
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+    <row r="36" spans="1:34">
+      <c r="A36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
+      <c r="N36" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH36" s="15" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="37" spans="9:34">
       <c r="I37" s="15"/>
@@ -2808,28 +3023,81 @@
       <c r="AG37" s="15"/>
       <c r="AH37" s="15"/>
     </row>
-    <row r="38" spans="9:34">
-      <c r="I38" s="15"/>
+    <row r="38" spans="1:34">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="W38" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
+      <c r="AB38" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
       <c r="AF38" s="15"/>
@@ -2864,28 +3132,87 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="15"/>
     </row>
-    <row r="40" spans="9:34">
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+    <row r="40" spans="1:34">
+      <c r="A40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
+      <c r="N40" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB40" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15"/>

--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>明显属性</t>
   </si>
@@ -671,6 +671,45 @@
   </si>
   <si>
     <t>白雪手套</t>
+  </si>
+  <si>
+    <t>摇滚演唱会</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>摇滚女声·红</t>
+  </si>
+  <si>
+    <t>剪裁T恤</t>
+  </si>
+  <si>
+    <t>性感不良·上衣</t>
+  </si>
+  <si>
+    <t>摇滚歌手</t>
+  </si>
+  <si>
+    <t>中网袜</t>
+  </si>
+  <si>
+    <t>铆钉袜圈</t>
+  </si>
+  <si>
+    <t>铆钉鞋</t>
+  </si>
+  <si>
+    <t>星星耳环</t>
+  </si>
+  <si>
+    <t>特工颈饰</t>
+  </si>
+  <si>
+    <t>铆钉手环</t>
+  </si>
+  <si>
+    <t>十字架手链</t>
   </si>
 </sst>
 </file>
@@ -678,9 +717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
@@ -1233,11 +1272,11 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V40" sqref="V40"/>
+      <selection pane="bottomRight" activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3247,27 +3286,80 @@
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
     </row>
-    <row r="42" spans="9:34">
-      <c r="I42" s="15"/>
+    <row r="42" spans="1:34">
+      <c r="A42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
+      <c r="K42" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
+      <c r="V42" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
+      <c r="AB42" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="15"/>

--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYH\Desktop\魔卡幻想\new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="245">
   <si>
     <t>明显属性</t>
   </si>
@@ -710,19 +715,65 @@
   </si>
   <si>
     <t>十字架手链</t>
+  </si>
+  <si>
+    <t>庄园娇花</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客信条</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔小妞/剪裁T恤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中网袜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>铆钉袜圈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑带</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>听诊器</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶趣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星耳饰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾丝兔耳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱之锁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄荷烟</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>利刃·血</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -793,7 +844,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -863,27 +914,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,15 +964,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1235,6 +1282,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1267,19 +1315,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AH42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB42" sqref="AB42"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
@@ -1304,15 +1350,15 @@
     <col min="29" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:28">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1331,9 +1377,10 @@
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="O1" s="17"/>
       <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1346,23 +1393,26 @@
       <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="U1" s="17"/>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="Z1" s="17"/>
       <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AC1" s="17"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +1457,7 @@
       <c r="AG2" s="15"/>
       <c r="AH2" s="15"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1502,7 @@
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1547,7 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1564,7 +1614,7 @@
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
     </row>
-    <row r="6" spans="9:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -1591,7 +1641,7 @@
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1652,7 +1702,7 @@
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
     </row>
-    <row r="8" spans="9:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -1679,7 +1729,7 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -1724,7 +1774,7 @@
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1769,7 +1819,7 @@
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1827,7 +1877,7 @@
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
     </row>
-    <row r="12" spans="9:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -1854,7 +1904,7 @@
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1922,7 +1972,7 @@
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1967,7 +2017,7 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
     </row>
-    <row r="15" spans="9:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -1994,7 +2044,7 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -2055,7 +2105,7 @@
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
     </row>
-    <row r="17" spans="9:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -2082,7 +2132,7 @@
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -2145,7 +2195,7 @@
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
     </row>
-    <row r="19" spans="9:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -2171,7 +2221,7 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -2245,7 +2295,7 @@
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
@@ -2312,7 +2362,7 @@
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
     </row>
-    <row r="22" spans="9:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I22" s="15" t="s">
         <v>115</v>
       </c>
@@ -2369,7 +2419,7 @@
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>128</v>
       </c>
@@ -2414,7 +2464,7 @@
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
@@ -2485,7 +2535,7 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
     </row>
-    <row r="25" spans="9:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -2512,7 +2562,7 @@
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
@@ -2590,7 +2640,7 @@
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
     </row>
-    <row r="27" spans="9:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -2617,7 +2667,7 @@
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
@@ -2691,7 +2741,7 @@
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
     </row>
-    <row r="29" spans="9:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -2718,7 +2768,7 @@
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
@@ -2763,7 +2813,7 @@
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
     </row>
-    <row r="31" spans="9:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -2790,7 +2840,7 @@
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -2853,7 +2903,7 @@
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
     </row>
-    <row r="33" spans="9:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -2881,7 +2931,7 @@
       <c r="AG33" s="15"/>
       <c r="AH33" s="15"/>
     </row>
-    <row r="34" spans="9:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -2909,7 +2959,7 @@
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
     </row>
-    <row r="35" spans="9:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -2937,7 +2987,7 @@
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
@@ -3034,7 +3084,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="9:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -3062,7 +3112,7 @@
       <c r="AG37" s="15"/>
       <c r="AH37" s="15"/>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>195</v>
       </c>
@@ -3143,7 +3193,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="15"/>
     </row>
-    <row r="39" spans="9:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -3171,7 +3221,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="15"/>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>211</v>
       </c>
@@ -3258,7 +3308,7 @@
       <c r="AG40" s="15"/>
       <c r="AH40" s="15"/>
     </row>
-    <row r="41" spans="9:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -3286,7 +3336,7 @@
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>219</v>
       </c>
@@ -3366,6 +3416,56 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="I45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V45" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="X45" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB45" s="15" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3375,8 +3475,8 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
   <si>
     <t>明显属性</t>
   </si>
@@ -241,6 +241,39 @@
     <t>宫廷歌舞会</t>
   </si>
   <si>
+    <t>云端舞娘·粉</t>
+  </si>
+  <si>
+    <t>夕夜迢迢</t>
+  </si>
+  <si>
+    <t>清兰依</t>
+  </si>
+  <si>
+    <t>海上花·珍稀</t>
+  </si>
+  <si>
+    <t>月涟漪</t>
+  </si>
+  <si>
+    <t>花满·珍稀</t>
+  </si>
+  <si>
+    <t>星海链</t>
+  </si>
+  <si>
+    <t>豪门披肩</t>
+  </si>
+  <si>
+    <t>月石链</t>
+  </si>
+  <si>
+    <t>星海手套</t>
+  </si>
+  <si>
+    <t>玲珑戏蝶</t>
+  </si>
+  <si>
     <t>绝世无双</t>
   </si>
   <si>
@@ -418,9 +451,6 @@
     <t>护士袜</t>
   </si>
   <si>
-    <t>月涟漪</t>
-  </si>
-  <si>
     <t>拂绿</t>
   </si>
   <si>
@@ -562,15 +592,6 @@
     <t>花开·珍稀</t>
   </si>
   <si>
-    <t>星海链</t>
-  </si>
-  <si>
-    <t>豪门披肩</t>
-  </si>
-  <si>
-    <t>星海手套</t>
-  </si>
-  <si>
     <t>墨兰扇</t>
   </si>
   <si>
@@ -667,9 +688,6 @@
     <t>花开·华丽</t>
   </si>
   <si>
-    <t>月石链</t>
-  </si>
-  <si>
     <t>白雪手套</t>
   </si>
   <si>
@@ -710,6 +728,129 @@
   </si>
   <si>
     <t>十字架手链</t>
+  </si>
+  <si>
+    <t>牛仔布的逆袭</t>
+  </si>
+  <si>
+    <t>罗密欧</t>
+  </si>
+  <si>
+    <t>少女心事·蓝</t>
+  </si>
+  <si>
+    <t>缝纫班·蓝</t>
+  </si>
+  <si>
+    <t>越野鞋</t>
+  </si>
+  <si>
+    <t>小侦探</t>
+  </si>
+  <si>
+    <t>翡翠环</t>
+  </si>
+  <si>
+    <t>迷彩手套</t>
+  </si>
+  <si>
+    <t>胡萝卜包</t>
+  </si>
+  <si>
+    <t>戒备时刻</t>
+  </si>
+  <si>
+    <t>爱斯基摩旅游节</t>
+  </si>
+  <si>
+    <t>芝士蛋糕·珍稀</t>
+  </si>
+  <si>
+    <t>格蕾雅·红酒</t>
+  </si>
+  <si>
+    <t>奶奶的礼物</t>
+  </si>
+  <si>
+    <t>欧罗巴·黑</t>
+  </si>
+  <si>
+    <t>毛绒兔耳</t>
+  </si>
+  <si>
+    <t>轻粉颈饰</t>
+  </si>
+  <si>
+    <t>花结</t>
+  </si>
+  <si>
+    <t>怪盗手套</t>
+  </si>
+  <si>
+    <t>小围裙</t>
+  </si>
+  <si>
+    <t>学妹眼镜</t>
+  </si>
+  <si>
+    <t>泡芙小包</t>
+  </si>
+  <si>
+    <t>少女的茶会（洛丽塔）</t>
+  </si>
+  <si>
+    <t>洋娃娃·金</t>
+  </si>
+  <si>
+    <t>花嫁童话</t>
+  </si>
+  <si>
+    <t>蔷薇花园</t>
+  </si>
+  <si>
+    <t>红马甲·珍稀</t>
+  </si>
+  <si>
+    <t>红围裙·珍稀</t>
+  </si>
+  <si>
+    <t>洛可情结</t>
+  </si>
+  <si>
+    <t>红皮鞋·珍稀</t>
+  </si>
+  <si>
+    <t>蔚海·华丽</t>
+  </si>
+  <si>
+    <t>部落围巾</t>
+  </si>
+  <si>
+    <t>花嫁颈饰</t>
+  </si>
+  <si>
+    <t>月桂手环</t>
+  </si>
+  <si>
+    <t>花嫁手套</t>
+  </si>
+  <si>
+    <t>芳华</t>
+  </si>
+  <si>
+    <t>粉兔气球</t>
+  </si>
+  <si>
+    <t>蔷薇链</t>
+  </si>
+  <si>
+    <t>红枫缎·珍稀</t>
+  </si>
+  <si>
+    <t>洛可小包</t>
+  </si>
+  <si>
+    <t>美得睡不着</t>
   </si>
 </sst>
 </file>
@@ -717,12 +858,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -789,6 +930,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -867,23 +1013,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +1073,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1269,14 +1418,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB42" sqref="AB42"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1941,24 +2090,51 @@
       <c r="G14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
+      <c r="T14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="AA14" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
@@ -1996,7 +2172,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>42</v>
@@ -2014,13 +2190,13 @@
         <v>41</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2029,13 +2205,13 @@
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15" t="s">
@@ -2084,7 +2260,7 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>22</v>
@@ -2102,35 +2278,35 @@
         <v>19</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15" t="s">
         <v>48</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -2173,7 +2349,7 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
@@ -2191,23 +2367,23 @@
         <v>23</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>45</v>
@@ -2215,27 +2391,27 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
@@ -2247,7 +2423,7 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>22</v>
@@ -2265,40 +2441,40 @@
         <v>41</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="15" t="s">
         <v>47</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="V21" s="15" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
@@ -2314,54 +2490,54 @@
     </row>
     <row r="22" spans="9:34">
       <c r="I22" s="15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>61</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="15" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AC22" s="15" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
@@ -2371,7 +2547,7 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -2416,7 +2592,7 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -2434,40 +2610,40 @@
         <v>23</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="W24" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
@@ -2477,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="AC24" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
@@ -2514,7 +2690,7 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>42</v>
@@ -2532,58 +2708,58 @@
         <v>23</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="O26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="R26" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AC26" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
@@ -2619,7 +2795,7 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>54</v>
@@ -2637,13 +2813,13 @@
         <v>23</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -2655,7 +2831,7 @@
         <v>67</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>68</v>
@@ -2673,13 +2849,13 @@
         <v>73</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="X28" s="15" t="s">
         <v>72</v>
       </c>
       <c r="Y28" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
@@ -2720,7 +2896,7 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
@@ -2792,7 +2968,7 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>40</v>
@@ -2810,35 +2986,35 @@
         <v>22</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -2939,7 +3115,7 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>42</v>
@@ -2957,81 +3133,81 @@
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="15" t="s">
         <v>47</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="V36" s="15" t="s">
         <v>73</v>
       </c>
       <c r="W36" s="15" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AA36" s="15" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AB36" s="15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF36" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG36" s="15" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AH36" s="15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="9:34">
@@ -3064,7 +3240,7 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
@@ -3082,60 +3258,60 @@
         <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Y38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Z38" s="15" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AC38" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
@@ -3173,7 +3349,7 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
@@ -3191,66 +3367,66 @@
         <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>70</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="W40" s="15" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AA40" s="15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AC40" s="15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
@@ -3288,7 +3464,7 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
@@ -3306,59 +3482,59 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="U42" s="15"/>
       <c r="V42" s="15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="W42" s="15" t="s">
         <v>50</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
@@ -3366,6 +3542,258 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="A46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W46" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB46" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32">
+      <c r="A48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB48" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
   <si>
     <t>明显属性</t>
   </si>
@@ -742,6 +742,9 @@
     <t>缝纫班·蓝</t>
   </si>
   <si>
+    <t>老时光</t>
+  </si>
+  <si>
     <t>越野鞋</t>
   </si>
   <si>
@@ -754,7 +757,7 @@
     <t>迷彩手套</t>
   </si>
   <si>
-    <t>胡萝卜包</t>
+    <t>胡萝卜包·华丽</t>
   </si>
   <si>
     <t>戒备时刻</t>
@@ -775,7 +778,7 @@
     <t>欧罗巴·黑</t>
   </si>
   <si>
-    <t>毛绒兔耳</t>
+    <t>毛绒兔耳·华丽</t>
   </si>
   <si>
     <t>轻粉颈饰</t>
@@ -858,9 +861,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="12">
@@ -1421,11 +1424,11 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3575,25 +3578,25 @@
         <v>241</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>209</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>213</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>214</v>
@@ -3602,13 +3605,13 @@
         <v>135</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC44" s="15" t="s">
         <v>198</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
@@ -3637,13 +3640,13 @@
         <v>203</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>208</v>
@@ -3652,13 +3655,13 @@
         <v>209</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>213</v>
@@ -3667,13 +3670,13 @@
         <v>214</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>135</v>
@@ -3682,16 +3685,16 @@
         <v>216</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AB46" s="15" t="s">
         <v>217</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE46" s="1" t="s">
         <v>199</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>42</v>
@@ -3723,28 +3726,28 @@
         <v>185</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>209</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>211</v>
@@ -3753,46 +3756,46 @@
         <v>159</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X48" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB48" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD48" s="1" t="s">
         <v>199</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/奇迹暖暖JJC.xlsx
+++ b/奇迹暖暖JJC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
   <si>
     <t>明显属性</t>
   </si>
@@ -364,13 +364,10 @@
     <t>大侦探福尔摩斯</t>
   </si>
   <si>
-    <t>长发娃娃</t>
-  </si>
-  <si>
-    <t>校服裙</t>
-  </si>
-  <si>
-    <t>短款外套·灰</t>
+    <t>容颜·华丽</t>
+  </si>
+  <si>
+    <t>姹紫嫣红</t>
   </si>
   <si>
     <t>红晕</t>
@@ -379,57 +376,66 @@
     <t>民国少女</t>
   </si>
   <si>
-    <t>过膝学生袜</t>
-  </si>
-  <si>
-    <t>钻辉</t>
+    <t>轩和</t>
+  </si>
+  <si>
+    <t>香罗</t>
+  </si>
+  <si>
+    <t>月空冥</t>
+  </si>
+  <si>
+    <t>兰佩·华丽</t>
+  </si>
+  <si>
+    <t>成玦</t>
+  </si>
+  <si>
+    <t>翡翠环</t>
+  </si>
+  <si>
+    <t>雀带</t>
+  </si>
+  <si>
+    <t>翠玉镯</t>
+  </si>
+  <si>
+    <t>绣缘情</t>
+  </si>
+  <si>
+    <t>麦穗皮包·棕</t>
+  </si>
+  <si>
+    <t>高贵鹿后</t>
+  </si>
+  <si>
+    <t>条纹绅士·外套</t>
+  </si>
+  <si>
+    <t>丝绸衬衫</t>
+  </si>
+  <si>
+    <t>条纹绅士·长裤</t>
+  </si>
+  <si>
+    <t>蛋糕麻花</t>
+  </si>
+  <si>
+    <t>布洛克绅士</t>
+  </si>
+  <si>
+    <t>出尘精灵</t>
   </si>
   <si>
     <t>画家帽</t>
   </si>
   <si>
-    <t>时间观念</t>
-  </si>
-  <si>
-    <t>朋克手镯</t>
-  </si>
-  <si>
-    <t>高贵鹿后</t>
-  </si>
-  <si>
-    <t>条纹绅士·外套</t>
-  </si>
-  <si>
-    <t>丝绸衬衫</t>
-  </si>
-  <si>
-    <t>条纹绅士·长裤</t>
-  </si>
-  <si>
-    <t>蛋糕麻花</t>
-  </si>
-  <si>
-    <t>布洛克绅士</t>
-  </si>
-  <si>
-    <t>出尘精灵</t>
-  </si>
-  <si>
     <t>暮霭</t>
   </si>
   <si>
     <t>青花手链</t>
   </si>
   <si>
-    <t>翠玉镯</t>
-  </si>
-  <si>
-    <t>岚蝶·棕</t>
-  </si>
-  <si>
-    <t>麦穗皮包·棕</t>
-  </si>
-  <si>
     <t>薄荷烟</t>
   </si>
   <si>
@@ -484,9 +490,6 @@
     <t>粉翼·华丽</t>
   </si>
   <si>
-    <t>香罗</t>
-  </si>
-  <si>
     <t>舞娘足饰</t>
   </si>
   <si>
@@ -751,9 +754,6 @@
     <t>小侦探</t>
   </si>
   <si>
-    <t>翡翠环</t>
-  </si>
-  <si>
     <t>迷彩手套</t>
   </si>
   <si>
@@ -854,6 +854,42 @@
   </si>
   <si>
     <t>美得睡不着</t>
+  </si>
+  <si>
+    <t>云端和风茶室</t>
+  </si>
+  <si>
+    <t>鬼姬·珍稀</t>
+  </si>
+  <si>
+    <t>梨院琳琅·墨宛</t>
+  </si>
+  <si>
+    <t>彩蝶·翠意</t>
+  </si>
+  <si>
+    <t>曼珠</t>
+  </si>
+  <si>
+    <t>火照·华丽</t>
+  </si>
+  <si>
+    <t>狐面</t>
+  </si>
+  <si>
+    <t>穗耳环·粉</t>
+  </si>
+  <si>
+    <t>紫结领</t>
+  </si>
+  <si>
+    <t>（雪钻手链）</t>
+  </si>
+  <si>
+    <t>鱼恋</t>
+  </si>
+  <si>
+    <t>和扇·樱粉</t>
   </si>
 </sst>
 </file>
@@ -861,10 +897,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1421,14 +1457,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2443,47 +2479,60 @@
       <c r="G21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="M21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="N21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="O21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="S21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="V21" s="15" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="Y21" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
@@ -2493,54 +2542,51 @@
     </row>
     <row r="22" spans="9:34">
       <c r="I22" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>61</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Y22" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC22" s="15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
@@ -2550,7 +2596,7 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -2595,7 +2641,7 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -2613,40 +2659,40 @@
         <v>23</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W24" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
@@ -2656,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="AC24" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
@@ -2693,7 +2739,7 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>42</v>
@@ -2711,58 +2757,58 @@
         <v>23</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB26" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC26" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
@@ -2798,7 +2844,7 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>54</v>
@@ -2816,10 +2862,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>103</v>
@@ -2834,7 +2880,7 @@
         <v>67</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>68</v>
@@ -2899,7 +2945,7 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
@@ -2971,7 +3017,7 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>40</v>
@@ -2989,35 +3035,35 @@
         <v>22</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="15"/>
       <c r="R32" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
@@ -3118,7 +3164,7 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>42</v>
@@ -3136,13 +3182,13 @@
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>89</v>
@@ -3150,22 +3196,22 @@
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O36" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="15" t="s">
         <v>47</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T36" s="15" t="s">
         <v>81</v>
@@ -3180,37 +3226,37 @@
         <v>84</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA36" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB36" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC36" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF36" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG36" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH36" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="9:34">
@@ -3243,7 +3289,7 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>22</v>
@@ -3261,60 +3307,60 @@
         <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Z38" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA38" s="15"/>
       <c r="AB38" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC38" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD38" s="15"/>
       <c r="AE38" s="15"/>
@@ -3352,7 +3398,7 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>22</v>
@@ -3370,54 +3416,54 @@
         <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>70</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="V40" s="15" t="s">
         <v>83</v>
       </c>
       <c r="W40" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X40" s="15" t="s">
         <v>112</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z40" s="15" t="s">
         <v>113</v>
@@ -3426,10 +3472,10 @@
         <v>114</v>
       </c>
       <c r="AB40" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC40" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
@@ -3467,7 +3513,7 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
@@ -3485,51 +3531,51 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U42" s="15"/>
       <c r="V42" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W42" s="15" t="s">
         <v>50</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y42" s="15" t="s">
         <v>113</v>
@@ -3537,7 +3583,7 @@
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AD42" s="15"/>
@@ -3548,7 +3594,7 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
@@ -3566,43 +3612,43 @@
         <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>246</v>
@@ -3614,7 +3660,7 @@
         <v>248</v>
       </c>
       <c r="AC44" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -3637,7 +3683,7 @@
         <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>250</v>
@@ -3649,10 +3695,10 @@
         <v>252</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>253</v>
@@ -3664,10 +3710,10 @@
         <v>254</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>255</v>
@@ -3679,16 +3725,16 @@
         <v>257</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>258</v>
       </c>
       <c r="AB46" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>259</v>
@@ -3697,10 +3743,10 @@
         <v>260</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -3723,7 +3769,7 @@
         <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>262</v>
@@ -3744,16 +3790,16 @@
         <v>267</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P48" s="16" t="s">
         <v>268</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>269</v>
@@ -3789,13 +3835,78 @@
         <v>278</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE48" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
